--- a/emr/static/emr/exports/templates/easynut-list.xlsx
+++ b/emr/static/emr/exports/templates/easynut-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="23540" tabRatio="737" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="23540" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="(Config)" sheetId="5" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>01#02</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>01#20</t>
+  </si>
+  <si>
+    <t>01#01</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1003,34 +1003,34 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
